--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_102.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(124.92, 129.88)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:38.620000', '0:00:46.840000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -618,585 +630,556 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(44.86, 47.36)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4868421052631579</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:26.397823', '0:01:47.493151'), ('0:01:27.686530', '0:01:49.977687')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.103448275862069</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:33.431496', '0:00:38.307687')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:36.820000', '0:00:38.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.36, 122.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.44, 130.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
